--- a/SEリスト.xlsx
+++ b/SEリスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -328,6 +328,61 @@
     <t>鉄のドアがぶつかる</t>
     <rPh sb="0" eb="1">
       <t>テツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_Player_Damage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_Bullet_Reflect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_Player_Down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_Player_Landing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE_Player_Attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄板で弾を弾く</t>
+    <rPh sb="0" eb="2">
+      <t>テッパン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ着地</t>
+    <rPh sb="4" eb="6">
+      <t>チャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー攻撃</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -901,7 +956,7 @@
   <dimension ref="B1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1169,36 +1224,56 @@
       <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="5">
